--- a/testingYandexMarket/authorization/authTestYM.xlsx
+++ b/testingYandexMarket/authorization/authTestYM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirsanov-ilya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{055C64A8-4E98-4A4C-AE18-FC6BFC6C3A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2C3E5-BD1B-7F4A-AABD-E08010FF6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{D963CF25-6BFC-D147-8F10-E2219881E734}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{D963CF25-6BFC-D147-8F10-E2219881E734}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>3. В верхнем правом углу страницы нажать кнопку "Войти"</t>
   </si>
   <si>
-    <t>Страница https://market.yandex.ru/ открыта, появился поп-ап с предложением авторизации.</t>
-  </si>
-  <si>
     <t>Событие по нажатию на кнопку "Войти" сработало, выполнена переадресация на домен https://passport.yandex.ru/. Открыта страница авторизации через Яндекс ID с предложением ввести логин или email.</t>
   </si>
   <si>
@@ -107,6 +104,11 @@
     <t>4.1 Под полем ввода логина появилась ошибка "Логин не указан"
 4.2 Переход на следующий шаг авторизации для ввода пароля
 4.3 Под полем ввода пароля появилась ошибка "Неверный пароль"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Страница https://market.yandex.ru/ открыта, появился поп-ап с предложением авторизации
+2. Страница https://market.yandex.ru/ открыта, поп-ап с предложением авторизации не появился - перейти к шагу 3.
+</t>
   </si>
 </sst>
 </file>
@@ -181,16 +183,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,7 +511,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,7 +529,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -566,75 +568,75 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
